--- a/biology/Zoologie/Anilios_pilbarensis/Anilios_pilbarensis.xlsx
+++ b/biology/Zoologie/Anilios_pilbarensis/Anilios_pilbarensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anilios pilbarensis est une espèce de serpents de la famille des Typhlopidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anilios pilbarensis est une espèce de serpents de la famille des Typhlopidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord-Ouest de l'Australie-Occidentale en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord-Ouest de l'Australie-Occidentale en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans leur description[2] les auteurs indiquent que ce serpent mesure entre 225 et 260 mm pour les mâles et entre 312 et 362 mm pour les femelles. Leur queue mesure entre 8,9 et 9,7 mm pour les mâles et entre 7,7 et 8,8 mm pour les femelles.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans leur description les auteurs indiquent que ce serpent mesure entre 225 et 260 mm pour les mâles et entre 312 et 362 mm pour les femelles. Leur queue mesure entre 8,9 et 9,7 mm pour les mâles et entre 7,7 et 8,8 mm pour les femelles.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de pilbar[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Pilbara, l'une des neuf régions d'Australie-Occidentale.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Aplin &amp; Donnellan 1993 : A new species of blindsnake, genus Ramphotyphlops (Typhlopidae, Squamata) from northwestern Western Australia, with a redescription of R. hamatus, Storr 1981. Records of the Western Australian Museum, vol. 16, no 2, p. 243-256 (texte intégral).</t>
         </is>
